--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_13_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_13_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2822266.641509932</v>
+        <v>2824027.171812716</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>124.0596109626755</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032233</v>
       </c>
       <c r="U2" t="n">
-        <v>97.26234557100804</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>130.7054599919082</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -749,13 +749,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527771</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>46.80908943098759</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -831,16 +831,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2.214688090589865</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888212</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>68.98787350302095</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015081</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015081</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015081</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>116.9725659584314</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468968</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="6">
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>127.4695742187181</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>125.2783963262488</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1034,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>138.656033081003</v>
+        <v>63.27499344337913</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.5491597882495</v>
+        <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
-        <v>207.9774417561196</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465022</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>96.89439912216993</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614512</v>
+        <v>91.06264775161986</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115259</v>
+        <v>20.2497997611523</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.379115290174</v>
+        <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>224.0328052098892</v>
+        <v>225.8092543744329</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>90.06308666747488</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>50.34571932179589</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>154.0869401039762</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>119.3168020713735</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1906,10 +1906,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>104.7777418077832</v>
       </c>
       <c r="G19" t="n">
-        <v>93.40444476188321</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,10 +2058,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.9367233701407</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>146.6281161973735</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2487,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>180.9172429496418</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495696159</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428199</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>140.1760114441804</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812055</v>
+        <v>109.090968037234</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3085,10 +3085,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701358</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576153</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881284</v>
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S37" t="n">
-        <v>172.026033500079</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3666,16 +3666,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>115.7228684476128</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>123.9815576456784</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3979,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>59.44001103519365</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>690.2330699327782</v>
+        <v>686.1106626298166</v>
       </c>
       <c r="C2" t="n">
-        <v>690.2330699327782</v>
+        <v>686.1106626298166</v>
       </c>
       <c r="D2" t="n">
-        <v>423.8554133656002</v>
+        <v>419.7330060626387</v>
       </c>
       <c r="E2" t="n">
-        <v>157.4777567984221</v>
+        <v>153.3553494954608</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5322560492186</v>
+        <v>146.4098487462574</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.2826908791767</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.517494751591</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030607</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946886</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298166</v>
       </c>
       <c r="U2" t="n">
-        <v>956.6107264999563</v>
+        <v>686.1106626298166</v>
       </c>
       <c r="V2" t="n">
-        <v>690.2330699327782</v>
+        <v>686.1106626298166</v>
       </c>
       <c r="W2" t="n">
-        <v>690.2330699327782</v>
+        <v>686.1106626298166</v>
       </c>
       <c r="X2" t="n">
-        <v>690.2330699327782</v>
+        <v>686.1106626298166</v>
       </c>
       <c r="Y2" t="n">
-        <v>690.2330699327782</v>
+        <v>686.1106626298166</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.2061662380652</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C3" t="n">
-        <v>429.7531369569381</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D3" t="n">
-        <v>280.8187272956869</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E3" t="n">
-        <v>121.5812722902314</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>141.1068094710485</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>287.8512331313451</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>478.4519222278687</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290002</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560895</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="T3" t="n">
-        <v>1007.573611489876</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="U3" t="n">
-        <v>1007.573611489876</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="V3" t="n">
-        <v>772.4215032581333</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="W3" t="n">
-        <v>772.4215032581333</v>
+        <v>782.2822794846129</v>
       </c>
       <c r="X3" t="n">
-        <v>772.4215032581333</v>
+        <v>782.2822794846129</v>
       </c>
       <c r="Y3" t="n">
-        <v>772.4215032581333</v>
+        <v>782.2822794846129</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>803.5223344656631</v>
+        <v>652.4144760322545</v>
       </c>
       <c r="C4" t="n">
-        <v>634.5861515377562</v>
+        <v>483.4782931043476</v>
       </c>
       <c r="D4" t="n">
-        <v>484.4695121254205</v>
+        <v>333.3616536920118</v>
       </c>
       <c r="E4" t="n">
-        <v>336.5564185430274</v>
+        <v>185.4485601096187</v>
       </c>
       <c r="F4" t="n">
-        <v>189.666471045117</v>
+        <v>38.55861261170836</v>
       </c>
       <c r="G4" t="n">
-        <v>21.0971104001205</v>
+        <v>38.55861261170836</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0971104001205</v>
+        <v>38.55861261170836</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375339</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227051</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075547</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816802</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="V4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="W4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="X4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="Y4" t="n">
-        <v>985.1707992959028</v>
+        <v>834.0629408624942</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1054.855520006032</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="C5" t="n">
-        <v>1054.855520006032</v>
+        <v>255.7225503044908</v>
       </c>
       <c r="D5" t="n">
-        <v>788.4778634388524</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E5" t="n">
-        <v>522.1002068716725</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>255.7225503044926</v>
+        <v>34.06092317356494</v>
       </c>
       <c r="G5" t="n">
-        <v>137.568443275774</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>137.568443275774</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012064</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917647</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052556</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515929</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030642</v>
+        <v>495.5981834030602</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991368</v>
+        <v>704.5463761991315</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358477</v>
+        <v>888.5149683358411</v>
       </c>
       <c r="P5" t="n">
-        <v>1011.02690460177</v>
+        <v>1011.026904601762</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006032</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006032</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006032</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006032</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006032</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006032</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006032</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006032</v>
+        <v>788.4778634388465</v>
       </c>
       <c r="Y5" t="n">
-        <v>1054.855520006032</v>
+        <v>522.1002068716687</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>471.0283840154776</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C6" t="n">
-        <v>296.5753547343505</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>147.6409450730993</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>21.09711040012064</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012064</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012064</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012064</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012064</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012064</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699374</v>
+        <v>192.1295835699341</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302348</v>
+        <v>338.8740072302307</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267596</v>
+        <v>529.4746963267545</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293656</v>
+        <v>739.5286634293595</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560962</v>
+        <v>909.4672107560893</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.5248107895</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006032</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006032</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006032</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006032</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006032</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="V6" t="n">
-        <v>1054.855520006032</v>
+        <v>819.7034117742817</v>
       </c>
       <c r="W6" t="n">
-        <v>1054.855520006032</v>
+        <v>565.4660550460801</v>
       </c>
       <c r="X6" t="n">
-        <v>847.0040198004995</v>
+        <v>357.6145548405473</v>
       </c>
       <c r="Y6" t="n">
-        <v>639.2437210355456</v>
+        <v>149.8542560755934</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>606.07338996448</v>
+        <v>85.01124519141254</v>
       </c>
       <c r="C7" t="n">
-        <v>606.07338996448</v>
+        <v>85.01124519141254</v>
       </c>
       <c r="D7" t="n">
-        <v>455.9567505521443</v>
+        <v>85.01124519141254</v>
       </c>
       <c r="E7" t="n">
-        <v>308.0436569697512</v>
+        <v>85.01124519141254</v>
       </c>
       <c r="F7" t="n">
-        <v>161.1537094718408</v>
+        <v>85.01124519141254</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012064</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012064</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012064</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012064</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287952</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551018</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375349</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227064</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075565</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816805</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006028</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006028</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006028</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006028</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006028</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006028</v>
+        <v>800.1710318001379</v>
       </c>
       <c r="W7" t="n">
-        <v>1054.855520006028</v>
+        <v>533.79337523296</v>
       </c>
       <c r="X7" t="n">
-        <v>826.8659691080102</v>
+        <v>305.8038243349426</v>
       </c>
       <c r="Y7" t="n">
-        <v>606.07338996448</v>
+        <v>85.01124519141254</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1796.957670105879</v>
+        <v>1699.084539679463</v>
       </c>
       <c r="C8" t="n">
-        <v>1427.995153165467</v>
+        <v>1330.122022739051</v>
       </c>
       <c r="D8" t="n">
-        <v>1069.729454558716</v>
+        <v>1330.122022739051</v>
       </c>
       <c r="E8" t="n">
-        <v>683.9412019604722</v>
+        <v>944.3337701408066</v>
       </c>
       <c r="F8" t="n">
-        <v>272.9552971708646</v>
+        <v>533.3478653511989</v>
       </c>
       <c r="G8" t="n">
-        <v>261.2894792029359</v>
+        <v>117.6416433428661</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685541</v>
+        <v>117.6416433428661</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685541</v>
+        <v>51.21125520685577</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467157</v>
+        <v>187.370225146718</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607396</v>
+        <v>442.1757437607432</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045886</v>
+        <v>795.1862829045945</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.64796299522</v>
+        <v>1219.647962995229</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209576</v>
+        <v>1655.591685209587</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940586</v>
+        <v>2053.905718940599</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550186</v>
+        <v>2359.356530550202</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661152</v>
+        <v>2540.564622661168</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.56276034277</v>
+        <v>2560.562760342788</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.56276034277</v>
+        <v>2462.689629916354</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.56276034277</v>
+        <v>2462.689629916354</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.56276034277</v>
+        <v>2462.689629916354</v>
       </c>
       <c r="V8" t="n">
-        <v>2560.56276034277</v>
+        <v>2462.689629916354</v>
       </c>
       <c r="W8" t="n">
-        <v>2560.56276034277</v>
+        <v>2462.689629916354</v>
       </c>
       <c r="X8" t="n">
-        <v>2187.09700208169</v>
+        <v>2089.223871655274</v>
       </c>
       <c r="Y8" t="n">
-        <v>1796.957670105879</v>
+        <v>1699.084539679463</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965633</v>
+        <v>929.5097208010832</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154363</v>
+        <v>755.0566915199562</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541851</v>
+        <v>606.1222818587049</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487295</v>
+        <v>446.8848268532494</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>300.3502688801344</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>163.6480708763226</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993883</v>
+        <v>71.6655983999389</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685541</v>
+        <v>51.21125520685577</v>
       </c>
       <c r="J9" t="n">
-        <v>238.3188829507227</v>
+        <v>113.4887579637191</v>
       </c>
       <c r="K9" t="n">
-        <v>684.7364639442737</v>
+        <v>559.9063389572714</v>
       </c>
       <c r="L9" t="n">
-        <v>979.2724473777538</v>
+        <v>854.4423223907531</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.338915852054</v>
+        <v>1217.508790865055</v>
       </c>
       <c r="N9" t="n">
-        <v>1729.423318324621</v>
+        <v>1604.593193337625</v>
       </c>
       <c r="O9" t="n">
-        <v>2061.310128312009</v>
+        <v>1936.480003325014</v>
       </c>
       <c r="P9" t="n">
-        <v>2308.345486741632</v>
+        <v>2445.345361789043</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.56276034277</v>
+        <v>2560.562760342788</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.56276034277</v>
+        <v>2560.562760342788</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251685</v>
+        <v>2424.826280251704</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685334</v>
+        <v>2230.816477685353</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520714847062</v>
+        <v>2002.726321751582</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.36860661532</v>
+        <v>1767.57421351984</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131249887118</v>
+        <v>1513.336856791638</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.485356586105</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.725057821151</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>715.9213805686095</v>
+        <v>461.2368923627296</v>
       </c>
       <c r="C10" t="n">
-        <v>546.9851976407026</v>
+        <v>292.3007094348227</v>
       </c>
       <c r="D10" t="n">
-        <v>396.8685582283669</v>
+        <v>142.184070022487</v>
       </c>
       <c r="E10" t="n">
-        <v>248.9554646459737</v>
+        <v>51.21125520685577</v>
       </c>
       <c r="F10" t="n">
-        <v>102.0655171480634</v>
+        <v>51.21125520685577</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685541</v>
+        <v>51.21125520685577</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685541</v>
+        <v>51.21125520685577</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685541</v>
+        <v>51.21125520685577</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380087</v>
+        <v>76.6346830838017</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676556</v>
+        <v>248.2500215676571</v>
       </c>
       <c r="L10" t="n">
-        <v>523.38500433689</v>
+        <v>523.3850043368925</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904007</v>
+        <v>823.8653899904043</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101609</v>
+        <v>1122.635640101613</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931086</v>
+        <v>1382.582027931092</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616495</v>
+        <v>1581.490387616501</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477357</v>
+        <v>1635.769145477364</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477357</v>
+        <v>1635.769145477364</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477357</v>
+        <v>1635.769145477364</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477357</v>
+        <v>1635.769145477364</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477357</v>
+        <v>1635.769145477364</v>
       </c>
       <c r="V10" t="n">
-        <v>1635.769145477357</v>
+        <v>1381.084657271477</v>
       </c>
       <c r="W10" t="n">
-        <v>1346.351975440397</v>
+        <v>1091.667487234517</v>
       </c>
       <c r="X10" t="n">
-        <v>1118.362424542379</v>
+        <v>863.6779363364994</v>
       </c>
       <c r="Y10" t="n">
-        <v>897.5698453988492</v>
+        <v>642.8853571929693</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,13 +5029,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
@@ -5044,7 +5044,7 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5062,19 +5062,19 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2291.319709737861</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>2071.718244760802</v>
       </c>
       <c r="U13" t="n">
-        <v>2090.842153176861</v>
+        <v>1782.643018104999</v>
       </c>
       <c r="V13" t="n">
-        <v>1836.157664970974</v>
+        <v>1527.958529899112</v>
       </c>
       <c r="W13" t="n">
-        <v>1546.740494934014</v>
+        <v>1238.541359862152</v>
       </c>
       <c r="X13" t="n">
-        <v>1318.750944035996</v>
+        <v>1010.551808964134</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>789.7592298206043</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797176</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,25 +5290,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466574</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,22 +5351,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
         <v>2001.151557821488</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5509,19 +5509,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5536,22 +5536,22 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,22 +5588,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
         <v>2001.151557821488</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876693</v>
+        <v>1057.613315601761</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597624</v>
+        <v>888.6771326738537</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597624</v>
+        <v>738.560493261518</v>
       </c>
       <c r="E19" t="n">
-        <v>411.9631215597624</v>
+        <v>590.6473996791249</v>
       </c>
       <c r="F19" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>1460.05435957553</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>1239.261780432</v>
       </c>
     </row>
     <row r="20">
@@ -5746,13 +5746,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5764,28 +5764,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5843,7 +5843,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.2707707770328</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C22" t="n">
-        <v>634.3345878491259</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>484.2179484367902</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>484.2179484367902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>484.2179484367902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.70136564882</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.711814750803</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.9192356072725</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5983,46 +5983,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1794.716390662386</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797201</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192612</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075867</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332393</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014785</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355943</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068016</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694714</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852262</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398601</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6281,34 +6281,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.3991132778468</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>768.9460839967198</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>620.0116743354686</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.774219330013</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>314.239661356898</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797201</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273919</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6338,7 +6338,7 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>2016.615714228346</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
         <v>1781.463605996603</v>
@@ -6347,7 +6347,7 @@
         <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>1319.374749062869</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
         <v>1111.614450297915</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797201</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797201</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797748</v>
+        <v>826.1405381797708</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1835.869149758807</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6493,7 +6493,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6502,10 +6502,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6694,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,37 +6712,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6934,19 +6934,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -6967,13 +6967,13 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S37" t="n">
-        <v>2273.199413378161</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T37" t="n">
-        <v>2273.199413378161</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.199413378161</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="38">
@@ -7168,37 +7168,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492579</v>
@@ -7207,16 +7207,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>983.3556038098242</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>814.4194208819173</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1165.004068640064</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7408,22 +7408,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7447,7 +7447,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
         <v>3467.980956852889</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>388.6197041282753</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7627,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7666,31 +7666,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761162</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418308</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>45.78351343583226</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,7 +8069,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>51.53815565544056</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127268</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761111</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519417924</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127474</v>
+        <v>97.32166909127216</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>264.474747509499</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.3837121690845</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348547</v>
+        <v>20.98618304348496</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>5.74118530494161e-12</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>26.93934589766835</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>99.26785128072127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>40.64330621514807</v>
       </c>
       <c r="G19" t="n">
-        <v>72.11969353038563</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5874149221281471</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>20.61870490125432</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>105.2672314396024</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194187</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>146.0084629450637</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405073</v>
+        <v>58.15585306139384</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S37" t="n">
-        <v>9.000252501565598</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>32.89260457059954</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>43.26526345294945</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>63.36835372228704</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>106.0841272570752</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>754539.876258416</v>
+        <v>754539.8762584159</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>754539.8762584158</v>
+        <v>754539.876258416</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>754539.8762584159</v>
+        <v>754539.876258416</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>754539.876258416</v>
+        <v>754539.8762584158</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>754539.8762584159</v>
+        <v>754539.8762584158</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>754539.8762584159</v>
+        <v>754539.8762584158</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>754539.876258416</v>
+        <v>754539.8762584158</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>754539.876258416</v>
+        <v>754539.8762584158</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>754539.8762584156</v>
+        <v>754539.876258416</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>754539.8762584158</v>
+        <v>754539.876258416</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.4601380335</v>
+      </c>
+      <c r="C2" t="n">
+        <v>677359.460138033</v>
+      </c>
+      <c r="D2" t="n">
         <v>677359.4601380336</v>
-      </c>
-      <c r="C2" t="n">
-        <v>677359.4601380337</v>
-      </c>
-      <c r="D2" t="n">
-        <v>677359.4601380337</v>
       </c>
       <c r="E2" t="n">
         <v>665895.9447442552</v>
       </c>
       <c r="F2" t="n">
+        <v>665895.9447442546</v>
+      </c>
+      <c r="G2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="H2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="J2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="H2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="I2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665895.9447442556</v>
-      </c>
       <c r="K2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="L2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.944744255</v>
       </c>
       <c r="P2" t="n">
         <v>665895.9447442548</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911927</v>
       </c>
       <c r="C3" t="n">
-        <v>2.036990619671997e-09</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580735</v>
+        <v>390680.0076580803</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606967</v>
+        <v>507909.2320606923</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911452</v>
+        <v>68999.1544191141</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101639</v>
+        <v>95270.23779101801</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954699</v>
+        <v>132717.9756954687</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247648.567042389</v>
+        <v>247648.5670423891</v>
       </c>
       <c r="C4" t="n">
-        <v>247648.5670423885</v>
+        <v>247648.5670423891</v>
       </c>
       <c r="D4" t="n">
-        <v>135650.8557716755</v>
+        <v>135650.8557716742</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744282</v>
@@ -26432,28 +26432,28 @@
         <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744433</v>
+        <v>8727.256391744235</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
+        <v>8727.256391744244</v>
+      </c>
+      <c r="M4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="M4" t="n">
-        <v>8727.256391744319</v>
-      </c>
       <c r="N4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
         <v>8727.256391744282</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426635</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567871</v>
+        <v>92902.86757567906</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26493,7 +26493,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-313424.8906998148</v>
+        <v>-313424.8906998145</v>
       </c>
       <c r="C6" t="n">
-        <v>366663.0898913769</v>
+        <v>366663.0898913775</v>
       </c>
       <c r="D6" t="n">
-        <v>58125.72913260604</v>
+        <v>58125.72913260007</v>
       </c>
       <c r="E6" t="n">
-        <v>47789.54721355013</v>
+        <v>48102.18854247581</v>
       </c>
       <c r="F6" t="n">
-        <v>555698.7792742467</v>
+        <v>556011.4206031678</v>
       </c>
       <c r="G6" t="n">
-        <v>555698.7792742467</v>
+        <v>556011.4206031678</v>
       </c>
       <c r="H6" t="n">
-        <v>555698.7792742463</v>
+        <v>556011.420603168</v>
       </c>
       <c r="I6" t="n">
-        <v>555698.7792742467</v>
+        <v>556011.4206031677</v>
       </c>
       <c r="J6" t="n">
-        <v>486699.6248551324</v>
+        <v>487012.2661840537</v>
       </c>
       <c r="K6" t="n">
-        <v>555698.7792742465</v>
+        <v>556011.4206031677</v>
       </c>
       <c r="L6" t="n">
-        <v>460428.5414832301</v>
+        <v>460741.1828121496</v>
       </c>
       <c r="M6" t="n">
-        <v>422980.8035787765</v>
+        <v>423293.4449076989</v>
       </c>
       <c r="N6" t="n">
-        <v>555698.7792742469</v>
+        <v>556011.4206031677</v>
       </c>
       <c r="O6" t="n">
-        <v>555698.7792742467</v>
+        <v>556011.4206031681</v>
       </c>
       <c r="P6" t="n">
-        <v>555698.7792742464</v>
+        <v>556011.4206031678</v>
       </c>
     </row>
   </sheetData>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.828191222438982e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.055013769478</v>
       </c>
       <c r="C3" t="n">
-        <v>614.05501376948</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627801</v>
+        <v>933.7024595627838</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015081</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856925</v>
+        <v>640.1406900856971</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.70828809965</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.828191222438982e-14</v>
+        <v>3.016897076984856e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.055013769478</v>
       </c>
       <c r="C3" t="n">
-        <v>1.591615728102624e-12</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933001</v>
+        <v>319.6474457933056</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788939</v>
+        <v>434.2730407788902</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841845</v>
+        <v>376.4268100841911</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139561</v>
+        <v>532.5675980139513</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015078</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841847</v>
+        <v>376.4268100841911</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139558</v>
+        <v>532.5675980139513</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841845</v>
+        <v>376.4268100841911</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139561</v>
+        <v>532.5675980139513</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>90.9691616191767</v>
+        <v>90.96916161917687</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707555</v>
+        <v>118.2164900707557</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>288.7745636830345</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>153.8858223072745</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862865</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>35.82772365795915</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27469,16 +27469,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,22 +27505,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>148.0318981538892</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>119.9358854342187</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>149.5967798490738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695015</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917488</v>
+        <v>142.1140765027778</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707537</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402034</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>295.8616086872786</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>314.1936326292679</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992221</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545475</v>
       </c>
     </row>
     <row r="6">
@@ -27694,16 +27694,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>39.06360943114922</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>32.36668412915212</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27712,10 +27712,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120972</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150547</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527746</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121987</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
         <v>194.8409875848768</v>
@@ -27754,10 +27754,10 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>28.22763395754362</v>
+        <v>103.6086735951674</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248084</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888188</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836638</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435937</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795658</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508492</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>93.0560324641809</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465079</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348409</v>
+        <v>26.59101801267062</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646899</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>251.0453666896856</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27949,7 +27949,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1.776449164525189</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27988,7 +27988,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.776449164543749</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>56.37087597909429</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>115.9615342899103</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590396</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430996</v>
+        <v>104.8162497430994</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640956</v>
+        <v>101.5869591640953</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503846</v>
+        <v>194.6738502503844</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103388</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29808,7 +29808,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>-4.924468620320016e-13</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>7.715401048922596e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425035</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649916</v>
+        <v>25.28116948649915</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.16927002350877</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016251</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167916</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.458039945929</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.471844198683</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465206</v>
+        <v>155.0658623465205</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702305</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990946</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458303</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N3" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542724</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825179</v>
+        <v>168.5986520825178</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736542</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944812</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020919</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582785</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244973</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779065</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M4" t="n">
-        <v>173.576239384051</v>
+        <v>173.5762393840509</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734694</v>
+        <v>169.4489843734693</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919118</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350553</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715649</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339134</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425043</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649923</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350907</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388639</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016261</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167928</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459304</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986844</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658391</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269082</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.5770185656238</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R5" t="n">
-        <v>155.065862346521</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702323</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
-        <v>10.80613396090813</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540034</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.320797576787183</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
-        <v>12.75612396528675</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990961</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472488</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919901</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458312</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043666</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N6" t="n">
-        <v>343.5174364293999</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542734</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480719</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825184</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736568</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163911</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944829</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020947</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912177</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582815</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244984</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779089</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225238</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.627142544034</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
-        <v>173.5762393840515</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734699</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817685</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555599</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919147</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350568</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337857</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715663</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339154</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885545</v>
+        <v>3.75357772688556</v>
       </c>
       <c r="H8" t="n">
-        <v>38.4413278954666</v>
+        <v>38.44132789546676</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157551</v>
+        <v>144.7098053157557</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972523</v>
+        <v>318.5802175972536</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763175</v>
+        <v>477.4691627763195</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354912</v>
+        <v>592.3427171354936</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359919</v>
+        <v>659.0954050359946</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525056</v>
+        <v>669.7602577525082</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307874</v>
+        <v>632.4356192307899</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983004</v>
+        <v>539.7691690983025</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542117</v>
+        <v>405.3441667542133</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864743</v>
+        <v>235.7856768864753</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140444</v>
+        <v>85.5346524514048</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944148</v>
+        <v>16.43128649944155</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508436</v>
+        <v>0.3002862181508448</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436923</v>
+        <v>2.008341139436931</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035134</v>
+        <v>19.39634732035142</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026249</v>
+        <v>69.14683309026277</v>
       </c>
       <c r="J9" t="n">
-        <v>189.744195107942</v>
+        <v>189.7441951079427</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502158</v>
+        <v>324.3030514502171</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571267</v>
+        <v>436.0654741571284</v>
       </c>
       <c r="M9" t="n">
-        <v>508.867840461715</v>
+        <v>508.8678404617171</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152198</v>
+        <v>522.3360580152219</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519069</v>
+        <v>477.8354464519088</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947578</v>
+        <v>383.5050724947593</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463694</v>
+        <v>256.3629847463704</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204785</v>
+        <v>124.693320920479</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366388</v>
+        <v>37.30405581366403</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133911</v>
+        <v>8.095024154133943</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419029</v>
+        <v>0.1321277065419034</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752554</v>
+        <v>1.683725746752561</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254839999</v>
+        <v>14.96985254840005</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415864</v>
+        <v>50.63422518415884</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954056</v>
+        <v>119.039410295406</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772512</v>
+        <v>195.618318577252</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490116</v>
+        <v>250.3240987490126</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023117</v>
+        <v>263.9316641023128</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462342</v>
+        <v>257.6559590462352</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046247</v>
+        <v>237.9869810046257</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708725</v>
+        <v>203.6389757708733</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939798</v>
+        <v>140.9890713939803</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307391</v>
+        <v>75.70643221307421</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658768</v>
+        <v>29.3427477865878</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942729</v>
+        <v>7.194100917942758</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650305</v>
+        <v>0.09183958618650342</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31849,10 +31849,10 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>301.1823051500296</v>
       </c>
       <c r="N12" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
@@ -31861,10 +31861,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>463.959892919255</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>337.5641188593843</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>173.8200325543355</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>173.8200325543355</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>173.8200325543355</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>337.5641188593843</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.470283312177</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664455</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468043</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186563</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.058780602092</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.826860744151</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716376</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117347</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>121.2219182534626</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659561</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877691</v>
+        <v>28.61687799649633</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966405</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458916</v>
+        <v>213.1601163458915</v>
       </c>
       <c r="N4" t="n">
-        <v>213.581156752698</v>
+        <v>213.5811567526979</v>
       </c>
       <c r="O4" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496797</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217766</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664552</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468056</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186577</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020935</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441524</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716387</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117432</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089058</v>
+        <v>172.7600739089026</v>
       </c>
       <c r="L6" t="n">
-        <v>148.226690565957</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823482</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460666</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098289</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.2400000337417</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649684</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966409</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L7" t="n">
-        <v>192.2171678043502</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458921</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N7" t="n">
-        <v>213.5811567526985</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O7" t="n">
-        <v>181.0986910958081</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.2029511204534</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827497081</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.534313070566</v>
+        <v>137.5343130705674</v>
       </c>
       <c r="K8" t="n">
-        <v>257.379311731337</v>
+        <v>257.3793117313389</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655039</v>
+        <v>356.5763021655063</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087192</v>
+        <v>428.7491718087219</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559147</v>
+        <v>440.3471941559173</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091007</v>
+        <v>402.3374078091032</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430308</v>
+        <v>308.536173343033</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797622</v>
+        <v>183.0384768797639</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234221</v>
+        <v>20.20013907234315</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.9976037816841</v>
+        <v>62.90656844127605</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884354</v>
+        <v>450.9268494884367</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772526</v>
+        <v>297.5110943772543</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396967</v>
+        <v>366.7338065396988</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318865</v>
+        <v>390.9943459318886</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074624</v>
+        <v>335.2392020074644</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804275</v>
+        <v>514.005412589928</v>
       </c>
       <c r="Q9" t="n">
-        <v>254.7649228294323</v>
+        <v>116.3812106603489</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873278</v>
+        <v>25.68023017873327</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513684</v>
+        <v>173.3488267513692</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093277</v>
+        <v>277.9141240093287</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641523</v>
+        <v>303.5155410641534</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254628</v>
+        <v>301.7881314254638</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186644</v>
+        <v>262.5721089186653</v>
       </c>
       <c r="P10" t="n">
-        <v>200.917535035766</v>
+        <v>200.9175350357667</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228541</v>
+        <v>54.82702814228595</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35415,7 +35415,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462684</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
         <v>735.300110790295</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35497,10 +35497,10 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280113</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35509,10 +35509,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,19 +35728,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>332.6181808359217</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>199.0097390795101</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367829</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191279</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>35.97859357997653</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>35.9785935799765</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>35.97859357997653</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>199.0097390795101</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
